--- a/成绩表.xlsx
+++ b/成绩表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20890" windowHeight="9980"/>
+    <workbookView windowWidth="21000" windowHeight="9980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="88">
   <si>
     <t>序号</t>
   </si>
@@ -160,88 +160,88 @@
     <t>职业生涯与发展规划</t>
   </si>
   <si>
+    <t>2019-2020-1</t>
+  </si>
+  <si>
+    <t>看美剧，学口语（网络2）</t>
+  </si>
+  <si>
+    <t>供应链管理（双语）</t>
+  </si>
+  <si>
+    <t>生产与运作管理</t>
+  </si>
+  <si>
+    <t>经济法A</t>
+  </si>
+  <si>
+    <t>建筑与风水</t>
+  </si>
+  <si>
+    <t>马克思主义基本原理概论</t>
+  </si>
+  <si>
+    <t>通识教育必修课</t>
+  </si>
+  <si>
+    <t>线性代数B</t>
+  </si>
+  <si>
+    <t>大学体育(三)</t>
+  </si>
+  <si>
+    <t>西方经济学</t>
+  </si>
+  <si>
+    <t>2019-2020-2</t>
+  </si>
+  <si>
+    <t>会计学A</t>
+  </si>
+  <si>
+    <t>专业实习</t>
+  </si>
+  <si>
+    <t>运筹学</t>
+  </si>
+  <si>
+    <t>国际物流</t>
+  </si>
+  <si>
+    <t>专业必修课</t>
+  </si>
+  <si>
+    <t>思想政治实践（四）</t>
+  </si>
+  <si>
+    <t>形势与政策(四)</t>
+  </si>
+  <si>
+    <t>毛泽东思想和中国特色社会主义理论体系概论</t>
+  </si>
+  <si>
+    <t>概率论与数理统计B</t>
+  </si>
+  <si>
+    <t>大学体育(四)</t>
+  </si>
+  <si>
+    <t>文献检索</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>大学生安全知识教育（二）</t>
+  </si>
+  <si>
+    <t>创业基础</t>
+  </si>
+  <si>
     <t>cxkc1</t>
   </si>
   <si>
     <t>创新创业、社会实践活动</t>
-  </si>
-  <si>
-    <t>2019-2020-1</t>
-  </si>
-  <si>
-    <t>看美剧，学口语（网络2）</t>
-  </si>
-  <si>
-    <t>供应链管理（双语）</t>
-  </si>
-  <si>
-    <t>生产与运作管理</t>
-  </si>
-  <si>
-    <t>经济法A</t>
-  </si>
-  <si>
-    <t>建筑与风水</t>
-  </si>
-  <si>
-    <t>马克思主义基本原理概论</t>
-  </si>
-  <si>
-    <t>通识教育必修课</t>
-  </si>
-  <si>
-    <t>线性代数B</t>
-  </si>
-  <si>
-    <t>大学体育(三)</t>
-  </si>
-  <si>
-    <t>西方经济学</t>
-  </si>
-  <si>
-    <t>2019-2020-2</t>
-  </si>
-  <si>
-    <t>会计学A</t>
-  </si>
-  <si>
-    <t>专业实习</t>
-  </si>
-  <si>
-    <t>运筹学</t>
-  </si>
-  <si>
-    <t>国际物流</t>
-  </si>
-  <si>
-    <t>专业必修课</t>
-  </si>
-  <si>
-    <t>思想政治实践（四）</t>
-  </si>
-  <si>
-    <t>形势与政策(四)</t>
-  </si>
-  <si>
-    <t>毛泽东思想和中国特色社会主义理论体系概论</t>
-  </si>
-  <si>
-    <t>概率论与数理统计B</t>
-  </si>
-  <si>
-    <t>大学体育(四)</t>
-  </si>
-  <si>
-    <t>文献检索</t>
-  </si>
-  <si>
-    <t>中</t>
-  </si>
-  <si>
-    <t>大学生安全知识教育（二）</t>
-  </si>
-  <si>
-    <t>创业基础</t>
   </si>
   <si>
     <t>2020-2021-1</t>
@@ -286,11 +286,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,17 +320,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -342,7 +343,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,7 +381,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -380,23 +404,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -417,14 +433,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -433,18 +441,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -456,16 +457,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -492,7 +485,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,7 +503,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,145 +641,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,7 +659,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,6 +688,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -710,11 +714,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -737,23 +747,26 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -772,169 +785,149 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1268,10 +1261,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K68"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A25" sqref="$A25:$XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2075,110 +2068,126 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" ht="45.75" spans="1:11">
+    <row r="25" ht="63.25" spans="1:11">
       <c r="A25" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="2" t="s">
         <v>48</v>
+      </c>
+      <c r="C25" s="2">
+        <v>51682</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="3"/>
+      <c r="E25" s="3">
+        <v>96</v>
+      </c>
       <c r="F25" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="G25" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="G25" s="2">
+        <v>30</v>
+      </c>
       <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
+      <c r="I25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="K25" s="2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" ht="45.75" spans="1:11">
       <c r="A26" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="C26" s="2">
+        <v>3040293</v>
+      </c>
       <c r="D26" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="E26" s="3">
+        <v>75</v>
+      </c>
       <c r="F26" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="G26" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="G26" s="2">
+        <v>48</v>
+      </c>
       <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
+      <c r="I26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="K26" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" ht="63.25" spans="1:11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" ht="45.75" spans="1:11">
       <c r="A27" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C27" s="2">
-        <v>51682</v>
+        <v>3046303</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E27" s="3">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F27" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G27" s="2">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" ht="45.75" spans="1:11">
       <c r="A28" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C28" s="2">
-        <v>3040293</v>
+        <v>5010583</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E28" s="3">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="F28" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G28" s="2">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2" t="s">
@@ -2191,54 +2200,54 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" ht="45.75" spans="1:11">
+    <row r="29" ht="35.75" spans="1:11">
       <c r="A29" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C29" s="2">
-        <v>3046303</v>
+        <v>7017802</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E29" s="3">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F29" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G29" s="2">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" ht="45.75" spans="1:11">
       <c r="A30" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C30" s="2">
-        <v>5010583</v>
+        <v>9025331</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E30" s="3">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F30" s="2">
         <v>2</v>
@@ -2254,21 +2263,21 @@
         <v>19</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" ht="35.75" spans="1:11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" ht="45.75" spans="1:11">
       <c r="A31" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C31" s="2">
-        <v>7017802</v>
+        <v>10023783</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E31" s="3">
         <v>92</v>
@@ -2281,36 +2290,36 @@
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" ht="45.75" spans="1:11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" ht="35.75" spans="1:11">
       <c r="A32" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C32" s="2">
-        <v>9025331</v>
+        <v>11005441</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E32" s="3">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F32" s="2">
         <v>2</v>
       </c>
       <c r="G32" s="2">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2" t="s">
@@ -2320,18 +2329,18 @@
         <v>19</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" ht="45.75" spans="1:11">
       <c r="A33" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C33" s="2">
-        <v>10023783</v>
+        <v>15010013</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>58</v>
@@ -2340,10 +2349,10 @@
         <v>92</v>
       </c>
       <c r="F33" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G33" s="2">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2" t="s">
@@ -2356,93 +2365,93 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" ht="35.75" spans="1:11">
+    <row r="34" ht="45.75" spans="1:11">
       <c r="A34" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C34" s="2">
-        <v>11005441</v>
+        <v>1050113</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E34" s="3">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F34" s="2">
         <v>2</v>
       </c>
       <c r="G34" s="2">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" ht="45.75" spans="1:11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" ht="35.75" spans="1:11">
       <c r="A35" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C35" s="2">
-        <v>15010013</v>
+        <v>3040046</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E35" s="3">
-        <v>92</v>
+        <v>61</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="F35" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G35" s="2">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" ht="45.75" spans="1:11">
       <c r="A36" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C36" s="2">
-        <v>1050113</v>
+        <v>3046813</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>62</v>
       </c>
       <c r="E36" s="3">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F36" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G36" s="2">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2" t="s">
@@ -2457,52 +2466,52 @@
     </row>
     <row r="37" ht="35.75" spans="1:11">
       <c r="A37" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C37" s="2">
-        <v>3040046</v>
+        <v>3046844</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>37</v>
+      <c r="E37" s="3">
+        <v>98</v>
       </c>
       <c r="F37" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G37" s="2">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" ht="45.75" spans="1:11">
       <c r="A38" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C38" s="2">
-        <v>3046813</v>
+        <v>9015176</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E38" s="3">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F38" s="2">
         <v>4</v>
@@ -2512,36 +2521,36 @@
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" ht="35.75" spans="1:11">
       <c r="A39" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C39" s="2">
-        <v>3046844</v>
+        <v>9015241</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E39" s="3">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="F39" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G39" s="2">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2" t="s">
@@ -2551,189 +2560,189 @@
         <v>19</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" ht="45.75" spans="1:11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" ht="75.75" spans="1:11">
       <c r="A40" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C40" s="2">
-        <v>9015176</v>
+        <v>9025381</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E40" s="3">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F40" s="2">
         <v>4</v>
       </c>
       <c r="G40" s="2">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" ht="35.75" spans="1:11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" ht="48.25" spans="1:11">
       <c r="A41" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C41" s="2">
-        <v>9015241</v>
+        <v>10023523</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E41" s="3">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F41" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G41" s="2">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" ht="75.75" spans="1:11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" ht="35.75" spans="1:11">
       <c r="A42" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" s="2">
-        <v>9025381</v>
+        <v>11005451</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>69</v>
       </c>
       <c r="E42" s="3">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F42" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G42" s="2">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" ht="48.25" spans="1:11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" ht="35.75" spans="1:11">
       <c r="A43" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C43" s="2">
-        <v>10023523</v>
+        <v>16010012</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E43" s="3">
-        <v>93</v>
+      <c r="E43" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="F43" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G43" s="2">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" ht="35.75" spans="1:11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" ht="45.75" spans="1:11">
       <c r="A44" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C44" s="2">
-        <v>11005451</v>
+        <v>17010022</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E44" s="3">
         <v>92</v>
       </c>
       <c r="F44" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44" s="2">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" ht="35.75" spans="1:11">
       <c r="A45" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C45" s="2">
-        <v>16010012</v>
+        <v>19013321</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E45" s="3" t="s">
         <v>73</v>
+      </c>
+      <c r="E45" s="3">
+        <v>93</v>
       </c>
       <c r="F45" s="2">
         <v>2</v>
@@ -2746,66 +2755,58 @@
         <v>13</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" ht="45.75" spans="1:11">
       <c r="A46" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" s="2">
-        <v>17010022</v>
+        <v>59</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E46" s="3">
-        <v>92</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="E46" s="3"/>
       <c r="F46" s="2">
-        <v>1</v>
-      </c>
-      <c r="G46" s="2">
-        <v>8</v>
-      </c>
+        <v>8.5</v>
+      </c>
+      <c r="G46" s="2"/>
       <c r="H46" s="2"/>
-      <c r="I46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
       <c r="K46" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" ht="35.75" spans="1:11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" ht="45.75" spans="1:11">
       <c r="A47" s="2">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C47" s="2">
-        <v>19013321</v>
+        <v>3040214</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E47" s="3">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F47" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G47" s="2">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2" t="s">
@@ -2815,595 +2816,237 @@
         <v>19</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="48" ht="45.75" spans="1:11">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" ht="35.75" spans="1:11">
       <c r="A48" s="2">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>48</v>
+        <v>76</v>
+      </c>
+      <c r="C48" s="2">
+        <v>3040285</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E48" s="3"/>
+        <v>78</v>
+      </c>
+      <c r="E48" s="3">
+        <v>92</v>
+      </c>
       <c r="F48" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="G48" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="G48" s="2">
+        <v>32</v>
+      </c>
       <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
+      <c r="I48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="K48" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" ht="45.75" spans="1:11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" ht="35.75" spans="1:11">
       <c r="A49" s="2">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>48</v>
+        <v>76</v>
+      </c>
+      <c r="C49" s="2">
+        <v>3045805</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E49" s="3"/>
+        <v>81</v>
+      </c>
+      <c r="E49" s="3">
+        <v>86</v>
+      </c>
       <c r="F49" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="G49" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="G49" s="2">
+        <v>32</v>
+      </c>
       <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
+      <c r="I49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="K49" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" ht="45.75" spans="1:11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" ht="35.75" spans="1:11">
       <c r="A50" s="2">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>48</v>
+        <v>76</v>
+      </c>
+      <c r="C50" s="2">
+        <v>3045824</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E50" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="E50" s="3">
+        <v>88</v>
+      </c>
       <c r="F50" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="G50" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="G50" s="2">
+        <v>64</v>
+      </c>
       <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
+      <c r="I50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="K50" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" ht="45.75" spans="1:11">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" ht="35.75" spans="1:11">
       <c r="A51" s="2">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>48</v>
+        <v>76</v>
+      </c>
+      <c r="C51" s="2">
+        <v>3046835</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E51" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="E51" s="3">
+        <v>79</v>
+      </c>
       <c r="F51" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="G51" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="G51" s="2">
+        <v>32</v>
+      </c>
       <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
+      <c r="I51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="K51" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="52" ht="45.75" spans="1:11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" ht="35.75" spans="1:11">
       <c r="A52" s="2">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>48</v>
+        <v>76</v>
+      </c>
+      <c r="C52" s="2">
+        <v>3046854</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E52" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="E52" s="3">
+        <v>96</v>
+      </c>
       <c r="F52" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="G52" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="G52" s="2">
+        <v>32</v>
+      </c>
       <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
+      <c r="I52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="K52" s="2" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" ht="45.75" spans="1:11">
       <c r="A53" s="2">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>48</v>
+        <v>76</v>
+      </c>
+      <c r="C53" s="2">
+        <v>3046864</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E53" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="E53" s="3">
+        <v>86</v>
+      </c>
       <c r="F53" s="2">
-        <v>8.5</v>
-      </c>
-      <c r="G53" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="G53" s="2">
+        <v>64</v>
+      </c>
       <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
+      <c r="I53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="K53" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="54" ht="45.75" spans="1:11">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" ht="35.75" spans="1:11">
       <c r="A54" s="2">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>48</v>
+        <v>76</v>
+      </c>
+      <c r="C54" s="2">
+        <v>8013232</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E54" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="E54" s="3">
+        <v>89</v>
+      </c>
       <c r="F54" s="2">
-        <v>8.5</v>
-      </c>
-      <c r="G54" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="G54" s="2">
+        <v>32</v>
+      </c>
       <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
+      <c r="I54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="K54" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="55" ht="45.75" spans="1:11">
-      <c r="A55" s="2">
-        <v>54</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" ht="45.75" spans="1:11">
-      <c r="A56" s="2">
-        <v>55</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="57" ht="45.75" spans="1:11">
-      <c r="A57" s="2">
-        <v>56</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E57" s="3"/>
-      <c r="F57" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="58" ht="45.75" spans="1:11">
-      <c r="A58" s="2">
-        <v>57</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E58" s="3"/>
-      <c r="F58" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="59" ht="45.75" spans="1:11">
-      <c r="A59" s="2">
-        <v>58</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E59" s="3"/>
-      <c r="F59" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="60" ht="45.75" spans="1:11">
-      <c r="A60" s="2">
-        <v>59</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E60" s="3"/>
-      <c r="F60" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="61" ht="45.75" spans="1:11">
-      <c r="A61" s="2">
-        <v>60</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C61" s="2">
-        <v>3040214</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E61" s="3">
-        <v>88</v>
-      </c>
-      <c r="F61" s="2">
-        <v>3</v>
-      </c>
-      <c r="G61" s="2">
-        <v>48</v>
-      </c>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="62" ht="35.75" spans="1:11">
-      <c r="A62" s="2">
-        <v>61</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C62" s="2">
-        <v>3040285</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E62" s="3">
-        <v>92</v>
-      </c>
-      <c r="F62" s="2">
-        <v>2</v>
-      </c>
-      <c r="G62" s="2">
-        <v>32</v>
-      </c>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="63" ht="35.75" spans="1:11">
-      <c r="A63" s="2">
-        <v>62</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C63" s="2">
-        <v>3045805</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E63" s="3">
-        <v>86</v>
-      </c>
-      <c r="F63" s="2">
-        <v>2</v>
-      </c>
-      <c r="G63" s="2">
-        <v>32</v>
-      </c>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64" ht="35.75" spans="1:11">
-      <c r="A64" s="2">
-        <v>63</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C64" s="2">
-        <v>3045824</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E64" s="3">
-        <v>88</v>
-      </c>
-      <c r="F64" s="2">
-        <v>4</v>
-      </c>
-      <c r="G64" s="2">
-        <v>64</v>
-      </c>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="65" ht="35.75" spans="1:11">
-      <c r="A65" s="2">
-        <v>64</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C65" s="2">
-        <v>3046835</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E65" s="3">
-        <v>79</v>
-      </c>
-      <c r="F65" s="2">
-        <v>2</v>
-      </c>
-      <c r="G65" s="2">
-        <v>32</v>
-      </c>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" ht="35.75" spans="1:11">
-      <c r="A66" s="2">
-        <v>65</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C66" s="2">
-        <v>3046854</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E66" s="3">
-        <v>96</v>
-      </c>
-      <c r="F66" s="2">
-        <v>2</v>
-      </c>
-      <c r="G66" s="2">
-        <v>32</v>
-      </c>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="67" ht="45.75" spans="1:11">
-      <c r="A67" s="2">
-        <v>66</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C67" s="2">
-        <v>3046864</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E67" s="3">
-        <v>86</v>
-      </c>
-      <c r="F67" s="2">
-        <v>4</v>
-      </c>
-      <c r="G67" s="2">
-        <v>64</v>
-      </c>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" ht="35.75" spans="1:11">
-      <c r="A68" s="2">
-        <v>67</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C68" s="2">
-        <v>8013232</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E68" s="3">
-        <v>89</v>
-      </c>
-      <c r="F68" s="2">
-        <v>2</v>
-      </c>
-      <c r="G68" s="2">
-        <v>32</v>
-      </c>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K68" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3432,46 +3075,35 @@
     <hyperlink ref="E22" r:id="rId21" display="87"/>
     <hyperlink ref="E23" r:id="rId22" display="93"/>
     <hyperlink ref="E24" r:id="rId23" display="91"/>
-    <hyperlink ref="E25" r:id="rId24"/>
-    <hyperlink ref="E26" r:id="rId24"/>
-    <hyperlink ref="E27" r:id="rId25" display="96"/>
-    <hyperlink ref="E28" r:id="rId26" display="75"/>
-    <hyperlink ref="E29" r:id="rId27" display="85"/>
-    <hyperlink ref="E30" r:id="rId28" display="88"/>
-    <hyperlink ref="E31" r:id="rId29" display="92"/>
-    <hyperlink ref="E32" r:id="rId30" display="85"/>
-    <hyperlink ref="E33" r:id="rId31" display="92"/>
-    <hyperlink ref="E34" r:id="rId32" display="86"/>
-    <hyperlink ref="E35" r:id="rId33" display="92"/>
-    <hyperlink ref="E36" r:id="rId34" display="83"/>
-    <hyperlink ref="E37" r:id="rId35" display="优"/>
-    <hyperlink ref="E38" r:id="rId36" display="93"/>
-    <hyperlink ref="E39" r:id="rId37" display="98"/>
-    <hyperlink ref="E40" r:id="rId38" display="85"/>
-    <hyperlink ref="E41" r:id="rId39" display="87"/>
-    <hyperlink ref="E42" r:id="rId40" display="91"/>
-    <hyperlink ref="E43" r:id="rId41" display="93"/>
-    <hyperlink ref="E44" r:id="rId42" display="92"/>
-    <hyperlink ref="E45" r:id="rId43" display="中"/>
-    <hyperlink ref="E46" r:id="rId44" display="92"/>
-    <hyperlink ref="E47" r:id="rId45" display="93"/>
-    <hyperlink ref="E48" r:id="rId24"/>
-    <hyperlink ref="E49" r:id="rId24"/>
-    <hyperlink ref="E51" r:id="rId24"/>
-    <hyperlink ref="E55" r:id="rId24"/>
-    <hyperlink ref="E56" r:id="rId24"/>
-    <hyperlink ref="E57" r:id="rId24"/>
-    <hyperlink ref="E58" r:id="rId24"/>
-    <hyperlink ref="E59" r:id="rId24"/>
-    <hyperlink ref="E60" r:id="rId24"/>
-    <hyperlink ref="E61" r:id="rId46" display="88"/>
-    <hyperlink ref="E62" r:id="rId47" display="92"/>
-    <hyperlink ref="E63" r:id="rId48" display="86"/>
-    <hyperlink ref="E64" r:id="rId49" display="88"/>
-    <hyperlink ref="E65" r:id="rId50" display="79"/>
-    <hyperlink ref="E66" r:id="rId51" display="96"/>
-    <hyperlink ref="E67" r:id="rId52" display="86"/>
-    <hyperlink ref="E68" r:id="rId53" display="89"/>
+    <hyperlink ref="E25" r:id="rId24" display="96"/>
+    <hyperlink ref="E26" r:id="rId25" display="75"/>
+    <hyperlink ref="E27" r:id="rId26" display="85"/>
+    <hyperlink ref="E28" r:id="rId27" display="88"/>
+    <hyperlink ref="E29" r:id="rId28" display="92"/>
+    <hyperlink ref="E30" r:id="rId29" display="85"/>
+    <hyperlink ref="E31" r:id="rId30" display="92"/>
+    <hyperlink ref="E32" r:id="rId31" display="86"/>
+    <hyperlink ref="E33" r:id="rId32" display="92"/>
+    <hyperlink ref="E34" r:id="rId33" display="83"/>
+    <hyperlink ref="E35" r:id="rId34" display="优"/>
+    <hyperlink ref="E36" r:id="rId35" display="93"/>
+    <hyperlink ref="E37" r:id="rId36" display="98"/>
+    <hyperlink ref="E38" r:id="rId37" display="85"/>
+    <hyperlink ref="E39" r:id="rId38" display="87"/>
+    <hyperlink ref="E40" r:id="rId39" display="91"/>
+    <hyperlink ref="E41" r:id="rId40" display="93"/>
+    <hyperlink ref="E42" r:id="rId41" display="92"/>
+    <hyperlink ref="E43" r:id="rId42" display="中"/>
+    <hyperlink ref="E44" r:id="rId43" display="92"/>
+    <hyperlink ref="E45" r:id="rId44" display="93"/>
+    <hyperlink ref="E47" r:id="rId45" display="88"/>
+    <hyperlink ref="E48" r:id="rId46" display="92"/>
+    <hyperlink ref="E49" r:id="rId47" display="86"/>
+    <hyperlink ref="E50" r:id="rId48" display="88"/>
+    <hyperlink ref="E51" r:id="rId49" display="79"/>
+    <hyperlink ref="E52" r:id="rId50" display="96"/>
+    <hyperlink ref="E53" r:id="rId51" display="86"/>
+    <hyperlink ref="E54" r:id="rId52" display="89"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
